--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Desktop\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -405,6 +408,9 @@
   </si>
   <si>
     <t>TESTED?</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -720,76 +726,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,61 +837,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63438</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164952</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>73714</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>178663</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7159563" y="903140"/>
-          <a:ext cx="1831932" cy="585211"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -879,7 +858,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -934,7 +913,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -987,7 +966,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1023,7 +1002,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1119,6 +1098,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1154,6 +1150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1308,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J11:J12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1333,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1328,55 +1341,55 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1388,8 +1401,8 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1401,8 +1414,8 @@
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1414,8 +1427,8 @@
       <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1427,92 +1440,92 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -1522,90 +1535,92 @@
         <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
@@ -1617,8 +1632,8 @@
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -1630,8 +1645,10 @@
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -1643,8 +1660,8 @@
       <c r="C30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
@@ -1656,8 +1673,8 @@
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
@@ -1667,10 +1684,10 @@
         <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
@@ -1682,11 +1699,11 @@
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="19"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1695,39 +1712,41 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="22"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
@@ -1739,8 +1758,10 @@
       <c r="C38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="18"/>
+      <c r="D38" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
@@ -1752,8 +1773,8 @@
       <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -1765,79 +1786,81 @@
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="21"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -1849,8 +1872,10 @@
       <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="23"/>
+      <c r="D48" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -1910,7 +1935,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1940,7 +1965,7 @@
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1964,6 +1989,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="D3:E3"/>
@@ -1980,30 +2029,6 @@
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2067,7 +2092,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2097,7 +2122,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Desktop\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27080" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -412,11 +410,17 @@
   <si>
     <t>Fixed</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,47 +516,47 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -561,7 +565,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -572,35 +576,35 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -610,76 +614,76 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thick">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -687,12 +691,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +755,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -765,30 +793,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +884,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -935,7 +939,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1065,7 +1069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1117,7 +1121,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1311,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1321,23 +1325,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="20">
       <c r="A1" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="21" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1345,25 +1349,25 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
@@ -1371,27 +1375,27 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1401,10 +1405,12 @@
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1423,7 @@
       <c r="D8" s="11"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="29" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1443,91 +1449,93 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:5" ht="42">
+      <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="D11" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" ht="43" thickBot="1">
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="28">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" ht="29" thickBot="1">
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="126">
+      <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="28">
       <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D16" s="25"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" ht="42">
       <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="43" thickBot="1">
+      <c r="A18" s="21"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1537,92 +1545,94 @@
       <c r="C19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="29" thickBot="1">
+      <c r="A21" s="21"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="22"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="25"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1645,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="29" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1660,7 @@
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="29" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1658,12 +1668,12 @@
         <v>41</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1676,7 +1686,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="29" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1686,10 +1696,12 @@
       <c r="C32" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="43" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -1699,11 +1711,13 @@
       <c r="C33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:5" ht="28">
+      <c r="A34" s="20" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1712,12 +1726,12 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -1725,10 +1739,10 @@
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="25"/>
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -1736,19 +1750,19 @@
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="23"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" ht="29" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -1763,7 +1777,7 @@
       </c>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="29" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -1776,7 +1790,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="13"/>
     </row>
-    <row r="40" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -1791,78 +1805,78 @@
       </c>
       <c r="E40" s="13"/>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:5" ht="28">
+      <c r="A41" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D41" s="22"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="42">
       <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="27"/>
+    </row>
+    <row r="43" spans="1:5" ht="43" thickBot="1">
+      <c r="A43" s="21"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="22"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="28">
       <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="25"/>
+      <c r="E45" s="27"/>
+    </row>
+    <row r="46" spans="1:5" ht="28">
       <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="27"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="21"/>
       <c r="B47" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="21"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1">
       <c r="A48" s="4" t="s">
         <v>67</v>
       </c>
@@ -1877,142 +1891,118 @@
       </c>
       <c r="E48" s="14"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="16">
       <c r="A62" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="16">
       <c r="A68" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="D3:E3"/>
@@ -2029,10 +2019,39 @@
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="D22:D27"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2044,107 +2063,112 @@
       <selection sqref="A1:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="16">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="16">
       <c r="A16" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27080" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27080" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -281,30 +281,6 @@
   </si>
   <si>
     <t>Fields to change to droplist:</t>
-  </si>
-  <si>
-    <r>
-      <t>1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Doctor, Specialty, Clinic (Auto-populated)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -416,12 +392,57 @@
   <si>
     <t>yes</t>
   </si>
+  <si>
+    <t>Nicole/Sean</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Doctor, Specialty, Clinic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Auto-populated)</t>
+    </r>
+  </si>
+  <si>
+    <t>no more</t>
+  </si>
+  <si>
+    <t>Sean fixed</t>
+  </si>
+  <si>
+    <t>yes but havent integrate w sean to test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +500,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +532,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -704,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -755,44 +788,47 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,7 +1351,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1338,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20">
       <c r="A1" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1">
@@ -1350,50 +1386,50 @@
       <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
@@ -1406,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -1418,9 +1454,11 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1">
@@ -1450,63 +1488,63 @@
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="42">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="D11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="43" thickBot="1">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" ht="29" thickBot="1">
-      <c r="A14" s="21"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="126">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" spans="1:5" ht="28">
       <c r="A16" s="24"/>
@@ -1514,8 +1552,8 @@
         <v>23</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="42">
       <c r="A17" s="24"/>
@@ -1523,17 +1561,17 @@
         <v>24</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="43" thickBot="1">
-      <c r="A18" s="21"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" ht="29" thickBot="1">
       <c r="A19" s="4" t="s">
@@ -1546,46 +1584,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" ht="29" thickBot="1">
-      <c r="A21" s="21"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="24"/>
@@ -1593,8 +1631,8 @@
         <v>33</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="24"/>
@@ -1602,8 +1640,8 @@
         <v>34</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="24"/>
@@ -1611,8 +1649,8 @@
         <v>35</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="24"/>
@@ -1620,19 +1658,19 @@
         <v>36</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1">
-      <c r="A27" s="21"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="28"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1">
+      <c r="C27" s="25"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" ht="71" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1642,7 +1680,9 @@
       <c r="C28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5" ht="29" thickBot="1">
@@ -1656,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="13"/>
     </row>
@@ -1670,10 +1710,12 @@
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1">
+    <row r="31" spans="1:5" ht="29" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1683,7 +1725,9 @@
       <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" ht="29" thickBot="1">
@@ -1697,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="13"/>
     </row>
@@ -1712,12 +1756,12 @@
         <v>18</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="28">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1726,10 +1770,10 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="26"/>
+      <c r="D34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="24"/>
@@ -1739,8 +1783,8 @@
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="24"/>
@@ -1750,17 +1794,17 @@
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" ht="29" thickBot="1">
       <c r="A38" s="4" t="s">
@@ -1773,7 +1817,7 @@
         <v>54</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="12"/>
     </row>
@@ -1781,13 +1825,15 @@
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1">
@@ -1801,22 +1847,24 @@
         <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="28">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" ht="42">
       <c r="A42" s="24"/>
@@ -1824,70 +1872,72 @@
         <v>61</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="43" thickBot="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" ht="28">
       <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C45" s="24"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" ht="28">
       <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="A47" s="25"/>
+      <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="27"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="28"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1">
       <c r="A48" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="14"/>
     </row>
@@ -1905,97 +1955,97 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16">
       <c r="A62" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16">
       <c r="A68" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -2003,6 +2053,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="D3:E3"/>
@@ -2019,30 +2093,6 @@
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2067,97 +2117,97 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16">
       <c r="A10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="16">
       <c r="A16" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP-GIT\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27080" windowHeight="17520"/>
   </bookViews>
@@ -15,18 +20,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -311,9 +316,6 @@
   </si>
   <si>
     <t>Client Module – Client Summary Page</t>
-  </si>
-  <si>
-    <t>Refer to process 1 and process 2</t>
   </si>
   <si>
     <r>
@@ -423,6 +425,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(Auto-populated)</t>
@@ -437,11 +440,32 @@
   <si>
     <t>yes but havent integrate w sean to test</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fail(checkbox)</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Refer to process 1 and process 2(to be done in interation 5)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,6 +528,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -737,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -797,38 +822,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,16 +919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>448373</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>672170</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>126272</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>549235</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>193260</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>285625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,8 +952,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8735123" y="54043920"/>
-          <a:ext cx="1910612" cy="1232830"/>
+          <a:off x="13700547" y="10619489"/>
+          <a:ext cx="4999742" cy="4271136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,7 +961,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -934,16 +974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>588625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266883</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>246152</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>1901699</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>376482</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,8 +1007,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6689687" y="54110563"/>
-          <a:ext cx="1882813" cy="1313074"/>
+          <a:off x="8291811" y="10526466"/>
+          <a:ext cx="5162827" cy="4832335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,7 +1016,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -989,16 +1029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>163513</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469348</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>154309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>31754</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>156450</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>184057</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1013,8 +1053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1288255" y="85521008"/>
-          <a:ext cx="4059240" cy="6635749"/>
+          <a:off x="12836974" y="17972191"/>
+          <a:ext cx="5183371" cy="7702826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,16 +1065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>598188</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>344649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>158749</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>140344</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1049,8 +1089,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="7921624" y="85740875"/>
-          <a:ext cx="3937000" cy="6191250"/>
+          <a:off x="9881383" y="14068701"/>
+          <a:ext cx="3808158" cy="6324692"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1351,7 +1391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1359,25 +1399,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="38.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1385,53 +1425,53 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A5" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1">
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1">
+      <c r="D6" s="27"/>
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1442,11 +1482,13 @@
         <v>11</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1454,14 +1496,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1">
+        <v>83</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1518,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="29" thickBot="1">
+    <row r="10" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1487,93 +1531,97 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" ht="42">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="43" thickBot="1">
+        <v>84</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" ht="28">
-      <c r="A13" s="23" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="18"/>
     </row>
-    <row r="14" spans="1:5" ht="29" thickBot="1">
+    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" ht="126">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="28">
-      <c r="A16" s="24"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="42">
-      <c r="A17" s="24"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="43" thickBot="1">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" ht="29" thickBot="1">
+      <c r="D18" s="27"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1584,93 +1632,99 @@
         <v>18</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="43.5" customHeight="1">
-      <c r="A20" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="29" thickBot="1">
+        <v>82</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="23" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="28"/>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="19"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="19"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="19"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1">
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" ht="71" thickBot="1">
+    <row r="28" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1681,11 +1735,13 @@
         <v>18</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="29" thickBot="1">
+        <v>89</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -1696,11 +1752,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="29" thickBot="1">
+        <v>82</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1711,11 +1769,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="29" thickBot="1">
+        <v>82</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1726,11 +1786,13 @@
         <v>18</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="29" thickBot="1">
+        <v>88</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1741,11 +1803,13 @@
         <v>18</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="43" thickBot="1">
+        <v>83</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -1756,12 +1820,14 @@
         <v>18</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="28">
-      <c r="A34" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1771,42 +1837,46 @@
         <v>49</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="28"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="24"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="28"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1">
+      <c r="D36" s="29"/>
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="29" thickBot="1">
+      <c r="D37" s="27"/>
+      <c r="E37" s="36"/>
+    </row>
+    <row r="38" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -1817,26 +1887,30 @@
         <v>54</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" ht="29" thickBot="1">
+        <v>82</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="21" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1">
+        <v>87</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -1847,218 +1921,249 @@
         <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="1:5" ht="28">
-      <c r="A41" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" ht="42">
-      <c r="A42" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="28"/>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" ht="43" thickBot="1">
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="23" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" spans="1:5" ht="28">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="28"/>
       <c r="B45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5" ht="28">
-      <c r="A46" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1">
+      <c r="C46" s="28"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1">
+      <c r="D47" s="27"/>
+      <c r="E47" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="16">
-      <c r="A62" s="9" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="16">
-      <c r="A68" s="9" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1"/>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="34">
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C11:C12"/>
@@ -2066,33 +2171,12 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E27"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2113,104 +2197,104 @@
       <selection sqref="A1:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
   </sheetData>

--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP-GIT\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27080" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="17520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -460,6 +460,78 @@
   </si>
   <si>
     <t>Refer to process 1 and process 2(to be done in interation 5)</t>
+  </si>
+  <si>
+    <t>Timeline-Summary</t>
+  </si>
+  <si>
+    <t>Change "No of years" to "Frequency (Years)"</t>
+  </si>
+  <si>
+    <t>type column to change to "Type"</t>
+  </si>
+  <si>
+    <t>Timeline-Add New Screening</t>
+  </si>
+  <si>
+    <t>Demographic affected - checkbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Successfully Added" message </t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Date dropdown to close after selecting</t>
+  </si>
+  <si>
+    <t>To hide time</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>"Value" to change to "Number of times Doctor was engaged"</t>
+  </si>
+  <si>
+    <t>GenderbyAge</t>
+  </si>
+  <si>
+    <t>to change to "Gender and Age Report"</t>
+  </si>
+  <si>
+    <t>Client List</t>
+  </si>
+  <si>
+    <t>To display Follow Up Person Column</t>
+  </si>
+  <si>
+    <t>Add Client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front End validation </t>
+  </si>
+  <si>
+    <t>add "Visa Type" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t>Add in Visa Type column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to change the display of data </t>
+  </si>
+  <si>
+    <t>TO change to check box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Infant Male </t>
+  </si>
+  <si>
+    <t>After acceptance</t>
   </si>
 </sst>
 </file>
@@ -564,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -758,11 +830,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -803,9 +890,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -825,51 +909,70 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,7 +1064,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -974,16 +1077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266883</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>35162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197860</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>151979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>376482</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552174</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>275166</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1007,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8291811" y="10526466"/>
-          <a:ext cx="5162827" cy="4832335"/>
+          <a:off x="7278110" y="21191646"/>
+          <a:ext cx="2132314" cy="1456687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1016,7 +1119,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1029,16 +1132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>469348</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>154309</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>156450</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>184057</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>280690</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>115036</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="12836974" y="17972191"/>
-          <a:ext cx="5183371" cy="7702826"/>
+          <a:off x="16966775" y="19285904"/>
+          <a:ext cx="5441053" cy="7403733"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,16 +1168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>598188</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>344649</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381597</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>427474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>140344</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57517</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>526866</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>112733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,8 +1192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9881383" y="14068701"/>
-          <a:ext cx="3808158" cy="6324692"/>
+          <a:off x="16652254" y="17604752"/>
+          <a:ext cx="4323520" cy="6081138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1145,7 +1248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1197,7 +1300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1399,79 +1502,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="16" t="s">
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="28"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1488,7 +1591,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1621,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1531,97 +1634,103 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="25"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="18"/>
-    </row>
-    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="28"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1638,93 +1747,93 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="35" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="26"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="28"/>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="19"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="28"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1850,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1775,7 +1884,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1792,7 +1901,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1918,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -1826,8 +1935,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="24" t="s">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1839,44 +1948,44 @@
       <c r="D34" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="28"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="35" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="28"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="35"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="27"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="28"/>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -1893,11 +2002,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -1906,11 +2015,11 @@
       <c r="D39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -1923,98 +2032,101 @@
       <c r="D40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="34" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="24" t="s">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="19" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C43" s="25"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="20" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="24" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="28"/>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
       <c r="B45" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="19" t="s">
+      <c r="C45" s="24"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="38" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="28"/>
+      <c r="F45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="19" t="s">
+      <c r="C46" s="24"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="25"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="20" t="s">
+      <c r="D47" s="28"/>
+      <c r="E47" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -2027,122 +2139,301 @@
       <c r="D48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="42"/>
+      <c r="B53" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="42"/>
+      <c r="B55" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="42"/>
+      <c r="B59" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="9" t="s">
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="9" t="s">
+    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="1"/>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A44:A47"/>
@@ -2159,28 +2450,10 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2197,104 +2470,104 @@
       <selection sqref="A1:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
   </sheetData>

--- a/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
+++ b/Tasklist deadline Monday 31 Oct 12 pm/Sprint2 bug fixes.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teh Kaixin\Desktop\Ulink\Tasklist deadline Monday 31 Oct 12 pm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27075" windowHeight="17520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +15,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
   <si>
     <t>DEADLINE: 31 Oct 2016 – Monday before 12 PM</t>
   </si>
@@ -533,11 +528,17 @@
   <si>
     <t>After acceptance</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>after acceptance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,7 +637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -832,24 +833,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -909,30 +921,61 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -942,37 +985,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,7 +1081,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1119,7 +1136,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1248,7 +1265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1300,7 +1317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1494,7 +1511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1504,23 +1521,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="20">
       <c r="A1" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="21" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,25 +1545,25 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
@@ -1554,27 +1571,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="30"/>
-    </row>
-    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="32"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" thickBot="1">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1638,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="29" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1634,103 +1651,106 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:9" ht="42">
+      <c r="A11" s="30" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="32" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:9" ht="43" thickBot="1">
+      <c r="A12" s="31"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="21" t="s">
         <v>92</v>
       </c>
       <c r="F12" t="s">
         <v>118</v>
       </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
       <c r="I12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:9" ht="28">
+      <c r="A13" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+    <row r="14" spans="1:9" ht="29" thickBot="1">
+      <c r="A14" s="31"/>
       <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+    <row r="15" spans="1:9" ht="126">
+      <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:9" ht="28">
+      <c r="A16" s="34"/>
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" ht="42">
+      <c r="A17" s="34"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" ht="43" thickBot="1">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="31"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1747,93 +1767,93 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+    <row r="20" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A20" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
+    <row r="21" spans="1:5" ht="29" thickBot="1">
+      <c r="A21" s="31"/>
       <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="34" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="34"/>
       <c r="B24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34"/>
       <c r="B25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="27"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:5" ht="15" thickBot="1">
+      <c r="A27" s="31"/>
       <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="19"/>
     </row>
-    <row r="28" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="71" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1850,7 +1870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="29" thickBot="1">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="29" thickBot="1">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="29" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -1901,7 +1921,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="29" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1938,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="43" thickBot="1">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -1935,8 +1955,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:6" ht="28">
+      <c r="A34" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1945,47 +1965,47 @@
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="34"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="27"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:6">
+      <c r="A36" s="34"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="27"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="36"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:6" ht="15" thickBot="1">
+      <c r="A37" s="31"/>
       <c r="B37" s="8"/>
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="28"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="37"/>
     </row>
-    <row r="38" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="29" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>52</v>
       </c>
@@ -2002,7 +2022,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="29" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>55</v>
       </c>
@@ -2015,11 +2035,14 @@
       <c r="D39" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -2032,101 +2055,104 @@
       <c r="D40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+      <c r="F40" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28">
+      <c r="A41" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="32" t="s">
         <v>83</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:6" ht="42">
+      <c r="A42" s="34"/>
       <c r="B42" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="27"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
+    <row r="43" spans="1:6" ht="43" thickBot="1">
+      <c r="A43" s="31"/>
       <c r="B43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="30" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="32" t="s">
         <v>83</v>
       </c>
       <c r="E44" s="17"/>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:6" ht="28">
+      <c r="A45" s="34"/>
       <c r="B45" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="38" t="s">
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:6" ht="28">
+      <c r="A46" s="34"/>
       <c r="B46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="38" t="s">
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
+    <row r="47" spans="1:6" ht="15" thickBot="1">
+      <c r="A47" s="31"/>
       <c r="B47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="34" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="21" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="29" thickBot="1">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -2139,301 +2165,301 @@
       <c r="D48" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="24" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+    <row r="50" spans="1:6" ht="28">
+      <c r="A50" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41" t="s">
+      <c r="D50" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C51" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="D51" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="27"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41" t="s">
+      <c r="D52" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="27"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="27"/>
+      <c r="B53" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="42" t="s">
+      <c r="C54" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41" t="s">
+      <c r="D54" s="43"/>
+      <c r="E54" s="27"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="27"/>
+      <c r="B55" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="42" t="s">
+      <c r="C55" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+      <c r="D55" s="43"/>
+      <c r="E55" s="27"/>
+    </row>
+    <row r="56" spans="1:6" ht="28">
+      <c r="A56" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="42" t="s">
+      <c r="C56" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-    </row>
-    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="41" t="s">
+      <c r="D56" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="27"/>
+      <c r="B57" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="42" t="s">
+      <c r="C58" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41" t="s">
+      <c r="D58" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="27"/>
+      <c r="B59" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
+      <c r="D60" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="41" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="27"/>
+      <c r="B62" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="42" t="s">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="16">
       <c r="A89" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" ht="16">
       <c r="A95" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1">
       <c r="A99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A44:A47"/>
@@ -2450,10 +2476,28 @@
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2470,104 +2514,104 @@
       <selection sqref="A1:T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="16">
       <c r="A10" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="16">
       <c r="A16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
